--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H2">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I2">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J2">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>1.299702615397333</v>
+        <v>1.455099590467111</v>
       </c>
       <c r="R2">
-        <v>11.697323538576</v>
+        <v>13.095896314204</v>
       </c>
       <c r="S2">
-        <v>0.001196188552443177</v>
+        <v>0.001043466009080769</v>
       </c>
       <c r="T2">
-        <v>0.001215904051657415</v>
+        <v>0.001057393945274997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>9.904702758465778</v>
+        <v>19.15640981205356</v>
       </c>
       <c r="R3">
-        <v>89.14232482619201</v>
+        <v>172.407688308482</v>
       </c>
       <c r="S3">
-        <v>0.009115848436918846</v>
+        <v>0.01373724700759649</v>
       </c>
       <c r="T3">
-        <v>0.009266095237331804</v>
+        <v>0.01392060851447941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.090240666666667</v>
+      </c>
+      <c r="H4">
+        <v>15.270722</v>
+      </c>
+      <c r="I4">
+        <v>0.01518526656315472</v>
+      </c>
+      <c r="J4">
+        <v>0.01525191836740238</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>2.631877333333333</v>
-      </c>
-      <c r="H4">
-        <v>7.895632</v>
-      </c>
-      <c r="I4">
-        <v>0.01066221345642817</v>
-      </c>
-      <c r="J4">
-        <v>0.01071963230056122</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.001072051367111111</v>
+        <v>0.5616113429940001</v>
       </c>
       <c r="R4">
-        <v>0.009648462304000001</v>
+        <v>3.369668057964</v>
       </c>
       <c r="S4">
-        <v>9.866684561355078E-07</v>
+        <v>0.0004027369333121158</v>
       </c>
       <c r="T4">
-        <v>1.002930659223744E-06</v>
+        <v>0.0002720750467620254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H5">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I5">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J5">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.3794074885573333</v>
+        <v>0.002533243105111111</v>
       </c>
       <c r="R5">
-        <v>2.276444931344</v>
+        <v>0.022799187946</v>
       </c>
       <c r="S5">
-        <v>0.0003491897986100096</v>
+        <v>1.816613165338811E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002366300809127758</v>
+        <v>1.840860885950929E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>3.060866</v>
       </c>
       <c r="I6">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J6">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>0.5038501725486666</v>
+        <v>0.2916603984457777</v>
       </c>
       <c r="R6">
-        <v>4.534651552938</v>
+        <v>2.624943586012</v>
       </c>
       <c r="S6">
-        <v>0.0004637213170221885</v>
+        <v>0.0002091524964799317</v>
       </c>
       <c r="T6">
-        <v>0.0004713643405594924</v>
+        <v>0.0002119442142747473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
         <v>3.839713896682889</v>
@@ -886,10 +886,10 @@
         <v>34.557425070146</v>
       </c>
       <c r="S7">
-        <v>0.003533902104570988</v>
+        <v>0.00275349602324984</v>
       </c>
       <c r="T7">
-        <v>0.003592147641216161</v>
+        <v>0.002790249033495635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J8">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>0.0004155975835555555</v>
+        <v>0.112569468882</v>
       </c>
       <c r="R8">
-        <v>0.003740378252</v>
+        <v>0.675416813292</v>
       </c>
       <c r="S8">
-        <v>3.824975544272665E-07</v>
+        <v>8.072465637966054E-05</v>
       </c>
       <c r="T8">
-        <v>3.888018533760873E-07</v>
+        <v>5.453476659992197E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J9">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.1470832837536667</v>
+        <v>0.0005077636597777777</v>
       </c>
       <c r="R9">
-        <v>0.8824997025219999</v>
+        <v>0.004569872938</v>
       </c>
       <c r="S9">
-        <v>0.0001353689207035264</v>
+        <v>3.641222381586111E-07</v>
       </c>
       <c r="T9">
-        <v>9.173337476254775E-05</v>
+        <v>3.68982455219673E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H10">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I10">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J10">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N10">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O10">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P10">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q10">
-        <v>54.50040892256999</v>
+        <v>19.76389518388755</v>
       </c>
       <c r="R10">
-        <v>490.50368030313</v>
+        <v>177.875056654988</v>
       </c>
       <c r="S10">
-        <v>0.05015975538121084</v>
+        <v>0.01417288065128344</v>
       </c>
       <c r="T10">
-        <v>0.05098648509349978</v>
+        <v>0.01436205689246582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H11">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I11">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J11">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>11.290081</v>
       </c>
       <c r="O11">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P11">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q11">
-        <v>415.3337418866899</v>
+        <v>260.1920020494838</v>
       </c>
       <c r="R11">
-        <v>3738.00367698021</v>
+        <v>2341.728018445354</v>
       </c>
       <c r="S11">
-        <v>0.3822547262754912</v>
+        <v>0.1865862046501941</v>
       </c>
       <c r="T11">
-        <v>0.3885550229470575</v>
+        <v>0.1890767129470388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H12">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I12">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J12">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N12">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O12">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P12">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q12">
-        <v>0.04495431277999999</v>
+        <v>7.628087994617999</v>
       </c>
       <c r="R12">
-        <v>0.40458881502</v>
+        <v>45.768527967708</v>
       </c>
       <c r="S12">
-        <v>4.137395254371074E-05</v>
+        <v>0.005470175779587559</v>
       </c>
       <c r="T12">
-        <v>4.205587524494326E-05</v>
+        <v>0.003695460256867906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H13">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I13">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J13">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N13">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O13">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P13">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q13">
-        <v>15.909688131495</v>
+        <v>0.03440778317355556</v>
       </c>
       <c r="R13">
-        <v>95.45812878896999</v>
+        <v>0.309670048562</v>
       </c>
       <c r="S13">
-        <v>0.01464257022366413</v>
+        <v>2.467415455590972E-05</v>
       </c>
       <c r="T13">
-        <v>0.009922605387067353</v>
+        <v>2.50034993043831E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H14">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I14">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J14">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N14">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O14">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P14">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q14">
-        <v>1.9588105382755</v>
+        <v>1.256258436348667</v>
       </c>
       <c r="R14">
-        <v>11.752863229653</v>
+        <v>7.537550618091999</v>
       </c>
       <c r="S14">
-        <v>0.001802802206083041</v>
+        <v>0.0009008750916698295</v>
       </c>
       <c r="T14">
-        <v>0.001221677247139751</v>
+        <v>0.0006085998388006276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H15">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I15">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J15">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>11.290081</v>
       </c>
       <c r="O15">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P15">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q15">
-        <v>14.92759644546683</v>
+        <v>16.53866277896433</v>
       </c>
       <c r="R15">
-        <v>89.56557867280101</v>
+        <v>99.23197667378601</v>
       </c>
       <c r="S15">
-        <v>0.01373869666185141</v>
+        <v>0.01186003525707723</v>
       </c>
       <c r="T15">
-        <v>0.009310091290383963</v>
+        <v>0.008012226791893989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H16">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I16">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J16">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N16">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O16">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P16">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q16">
-        <v>0.001615712310333334</v>
+        <v>0.484866460143</v>
       </c>
       <c r="R16">
-        <v>0.009694273862000001</v>
+        <v>1.939465840572</v>
       </c>
       <c r="S16">
-        <v>1.487029838030605E-06</v>
+        <v>0.0003477024345392882</v>
       </c>
       <c r="T16">
-        <v>1.007692642492928E-06</v>
+        <v>0.00015659710398472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,55 +1461,55 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H17">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I17">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J17">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N17">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O17">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P17">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q17">
-        <v>0.5718134118392501</v>
+        <v>0.002187072309666666</v>
       </c>
       <c r="R17">
-        <v>2.287253647357</v>
+        <v>0.013122433858</v>
       </c>
       <c r="S17">
-        <v>0.0005262716634347014</v>
+        <v>1.568370735233547E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002377536166985545</v>
+        <v>1.059536649940574E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H18">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I18">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J18">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N18">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O18">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P18">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q18">
-        <v>63.63523895766701</v>
+        <v>73.05620443856044</v>
       </c>
       <c r="R18">
-        <v>572.7171506190031</v>
+        <v>657.5058399470439</v>
       </c>
       <c r="S18">
-        <v>0.05856704716245932</v>
+        <v>0.05238931175811944</v>
       </c>
       <c r="T18">
-        <v>0.05953234529205046</v>
+        <v>0.05308859183535875</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H19">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I19">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J19">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>11.290081</v>
       </c>
       <c r="O19">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P19">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q19">
-        <v>484.9479560729724</v>
+        <v>961.7861215183002</v>
       </c>
       <c r="R19">
-        <v>4364.531604656752</v>
+        <v>8656.075093664702</v>
       </c>
       <c r="S19">
-        <v>0.4463245566431876</v>
+        <v>0.6897061427168725</v>
       </c>
       <c r="T19">
-        <v>0.4536808479467797</v>
+        <v>0.6989121763249917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H20">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I20">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J20">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N20">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O20">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P20">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q20">
-        <v>0.05248911875133334</v>
+        <v>28.196828146734</v>
       </c>
       <c r="R20">
-        <v>0.4724020687620001</v>
+        <v>169.180968880404</v>
       </c>
       <c r="S20">
-        <v>4.830865325217554E-05</v>
+        <v>0.02022021855257599</v>
       </c>
       <c r="T20">
-        <v>4.910487322375851E-05</v>
+        <v>0.0136600754814979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H21">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I21">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J21">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N21">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O21">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P21">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q21">
-        <v>18.5763157745845</v>
+        <v>0.1271865701784444</v>
       </c>
       <c r="R21">
-        <v>111.457894647507</v>
+        <v>1.144679131606</v>
       </c>
       <c r="S21">
-        <v>0.01709681585070478</v>
+        <v>9.120672128714493E-05</v>
       </c>
       <c r="T21">
-        <v>0.01158573627925891</v>
+        <v>9.242412691753163E-05</v>
       </c>
     </row>
   </sheetData>
